--- a/datasets/tab-4.xlsx
+++ b/datasets/tab-4.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
-  <si>
-    <t xml:space="preserve">Përshkrimi </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t xml:space="preserve">Pushime, vizitë tek të afërm, etj.</t>
   </si>
   <si>
     <t xml:space="preserve">2016-11</t>
@@ -179,12 +179,6 @@
   </si>
   <si>
     <t xml:space="preserve">2021-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyrje Shtetas të huaj </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I. Personale</t>
   </si>
   <si>
     <t xml:space="preserve">  1. Pushime, vizitë tek të afërm, etj.</t>
@@ -203,7 +197,7 @@
     <numFmt numFmtId="169" formatCode="@"/>
     <numFmt numFmtId="170" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -254,24 +248,16 @@
       <charset val="238"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Narrow"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
@@ -415,7 +401,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -442,18 +428,6 @@
     </xf>
     <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -565,10 +539,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topRight" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="59.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="6.71"/>
@@ -741,625 +715,301 @@
         <v>53</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>210377</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>225690</v>
+        <v>196814</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>205166</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>172757</v>
-      </c>
-      <c r="E2" s="7" t="n">
-        <v>185721</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>243462</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>359452</v>
-      </c>
-      <c r="H2" s="7" t="n">
-        <v>360082</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>437820</v>
-      </c>
-      <c r="J2" s="7" t="n">
-        <v>864023</v>
-      </c>
-      <c r="K2" s="7" t="n">
-        <v>1142198</v>
-      </c>
-      <c r="L2" s="7" t="n">
-        <v>459168</v>
-      </c>
-      <c r="M2" s="7" t="n">
-        <v>379327</v>
-      </c>
-      <c r="N2" s="7" t="n">
-        <f aca="false">SUM(N4:N4)</f>
+        <v>161145</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>175257</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>227709</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>334164</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>337109</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>414529</v>
+      </c>
+      <c r="J2" s="6" t="n">
+        <v>825652</v>
+      </c>
+      <c r="K2" s="6" t="n">
+        <v>1116592</v>
+      </c>
+      <c r="L2" s="6" t="n">
+        <v>437185</v>
+      </c>
+      <c r="M2" s="6" t="n">
+        <v>363766</v>
+      </c>
+      <c r="N2" s="6" t="n">
         <v>238743</v>
       </c>
-      <c r="O2" s="7" t="n">
-        <v>257474</v>
+      <c r="O2" s="6" t="n">
+        <v>233990</v>
       </c>
       <c r="P2" s="6" t="n">
-        <v>232338</v>
-      </c>
-      <c r="Q2" s="7" t="n">
-        <v>190531</v>
-      </c>
-      <c r="R2" s="7" t="n">
-        <v>254020</v>
-      </c>
-      <c r="S2" s="7" t="n">
-        <v>351610</v>
-      </c>
-      <c r="T2" s="7" t="n">
-        <v>394869</v>
-      </c>
-      <c r="U2" s="7" t="n">
-        <v>496137</v>
-      </c>
-      <c r="V2" s="7" t="n">
-        <v>1028182</v>
-      </c>
-      <c r="W2" s="7" t="n">
-        <v>1449952</v>
-      </c>
-      <c r="X2" s="7" t="n">
-        <v>664184</v>
-      </c>
-      <c r="Y2" s="7" t="n">
-        <v>337603</v>
-      </c>
-      <c r="Z2" s="7" t="n">
-        <v>246678</v>
-      </c>
-      <c r="AA2" s="7" t="n">
-        <v>280699</v>
+        <v>217593</v>
+      </c>
+      <c r="Q2" s="6" t="n">
+        <v>177028</v>
+      </c>
+      <c r="R2" s="6" t="n">
+        <v>235630</v>
+      </c>
+      <c r="S2" s="6" t="n">
+        <v>327508</v>
+      </c>
+      <c r="T2" s="6" t="n">
+        <v>368190</v>
+      </c>
+      <c r="U2" s="6" t="n">
+        <v>473472</v>
+      </c>
+      <c r="V2" s="6" t="n">
+        <v>985913</v>
+      </c>
+      <c r="W2" s="6" t="n">
+        <v>1417769</v>
+      </c>
+      <c r="X2" s="6" t="n">
+        <v>640568</v>
+      </c>
+      <c r="Y2" s="6" t="n">
+        <v>314489</v>
+      </c>
+      <c r="Z2" s="6" t="n">
+        <v>228357</v>
+      </c>
+      <c r="AA2" s="6" t="n">
+        <v>253301</v>
       </c>
       <c r="AB2" s="6" t="n">
-        <v>209520</v>
-      </c>
-      <c r="AC2" s="7" t="n">
-        <v>201597</v>
+        <v>194863</v>
+      </c>
+      <c r="AC2" s="6" t="n">
+        <v>185863</v>
       </c>
       <c r="AD2" s="6" t="n">
-        <v>283910</v>
-      </c>
-      <c r="AE2" s="7" t="n">
-        <v>410060</v>
-      </c>
-      <c r="AF2" s="7" t="n">
-        <v>401531</v>
-      </c>
-      <c r="AG2" s="7" t="n">
-        <v>630334</v>
-      </c>
-      <c r="AH2" s="7" t="n">
-        <v>1176810</v>
-      </c>
-      <c r="AI2" s="7" t="n">
-        <v>1556826</v>
-      </c>
-      <c r="AJ2" s="7" t="n">
-        <v>591414</v>
-      </c>
-      <c r="AK2" s="7" t="n">
-        <v>387152</v>
-      </c>
-      <c r="AL2" s="7" t="n">
-        <v>268176</v>
-      </c>
-      <c r="AM2" s="7" t="n">
-        <v>288708</v>
-      </c>
-      <c r="AN2" s="7" t="n">
-        <v>249461</v>
-      </c>
-      <c r="AO2" s="7" t="n">
-        <v>228941</v>
-      </c>
-      <c r="AP2" s="7" t="n">
-        <v>95321</v>
-      </c>
-      <c r="AQ2" s="7" t="n">
-        <v>12188</v>
-      </c>
-      <c r="AR2" s="7" t="n">
-        <v>16389</v>
-      </c>
-      <c r="AS2" s="7" t="n">
-        <v>179594</v>
-      </c>
-      <c r="AT2" s="7" t="n">
-        <v>387716</v>
-      </c>
-      <c r="AU2" s="7" t="n">
-        <v>575559</v>
-      </c>
-      <c r="AV2" s="7" t="n">
-        <v>377033</v>
-      </c>
-      <c r="AW2" s="7" t="n">
-        <v>206439</v>
-      </c>
-      <c r="AX2" s="7" t="n">
-        <v>148362</v>
-      </c>
-      <c r="AY2" s="7" t="n">
-        <v>180815</v>
-      </c>
-      <c r="AZ2" s="7" t="n">
-        <v>185329</v>
-      </c>
-      <c r="BA2" s="7" t="n">
-        <v>158173</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="6" t="n">
-        <v>204756</v>
-      </c>
-      <c r="C3" s="7" t="n">
-        <v>219845</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>169822</v>
-      </c>
-      <c r="E3" s="7" t="n">
-        <v>182010</v>
-      </c>
-      <c r="F3" s="7" t="n">
-        <v>237995</v>
-      </c>
-      <c r="G3" s="7" t="n">
-        <v>353374</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <v>353277</v>
-      </c>
-      <c r="I3" s="7" t="n">
-        <v>430702</v>
-      </c>
-      <c r="J3" s="7" t="n">
-        <v>856707</v>
-      </c>
-      <c r="K3" s="7" t="n">
-        <v>1136255</v>
-      </c>
-      <c r="L3" s="7" t="n">
-        <v>452634</v>
-      </c>
-      <c r="M3" s="7" t="n">
-        <v>374506</v>
-      </c>
-      <c r="N3" s="7" t="n">
-        <v>249651</v>
-      </c>
-      <c r="O3" s="7" t="n">
-        <v>252240</v>
-      </c>
-      <c r="P3" s="6" t="n">
-        <v>227727</v>
-      </c>
-      <c r="Q3" s="7" t="n">
-        <v>185510</v>
-      </c>
-      <c r="R3" s="7" t="n">
-        <v>247543</v>
-      </c>
-      <c r="S3" s="7" t="n">
-        <v>344304</v>
-      </c>
-      <c r="T3" s="7" t="n">
-        <v>385506</v>
-      </c>
-      <c r="U3" s="7" t="n">
-        <v>488095</v>
-      </c>
-      <c r="V3" s="7" t="n">
-        <v>1020381</v>
-      </c>
-      <c r="W3" s="7" t="n">
-        <v>1443066</v>
-      </c>
-      <c r="X3" s="7" t="n">
-        <v>656680</v>
-      </c>
-      <c r="Y3" s="7" t="n">
-        <v>328235</v>
-      </c>
-      <c r="Z3" s="7" t="n">
-        <v>238500</v>
-      </c>
-      <c r="AA3" s="7" t="n">
-        <v>274079</v>
-      </c>
-      <c r="AB3" s="6" t="n">
-        <v>204774</v>
-      </c>
-      <c r="AC3" s="7" t="n">
-        <v>193963</v>
-      </c>
-      <c r="AD3" s="6" t="n">
-        <v>276068</v>
-      </c>
-      <c r="AE3" s="7" t="n">
-        <v>401372</v>
-      </c>
-      <c r="AF3" s="7" t="n">
-        <v>392098</v>
-      </c>
-      <c r="AG3" s="7" t="n">
-        <v>621213</v>
-      </c>
-      <c r="AH3" s="7" t="n">
-        <v>1167708</v>
-      </c>
-      <c r="AI3" s="7" t="n">
-        <v>1548855</v>
-      </c>
-      <c r="AJ3" s="7" t="n">
-        <v>582740</v>
-      </c>
-      <c r="AK3" s="7" t="n">
-        <v>376415</v>
-      </c>
-      <c r="AL3" s="7" t="n">
-        <v>260122</v>
-      </c>
-      <c r="AM3" s="7" t="n">
-        <v>279517</v>
-      </c>
-      <c r="AN3" s="7" t="n">
-        <v>242193</v>
-      </c>
-      <c r="AO3" s="7" t="n">
-        <v>220172</v>
-      </c>
-      <c r="AP3" s="7" t="n">
-        <v>88496</v>
-      </c>
-      <c r="AQ3" s="7" t="n">
-        <v>4102</v>
-      </c>
-      <c r="AR3" s="7" t="n">
-        <v>5498</v>
-      </c>
-      <c r="AS3" s="7" t="n">
-        <v>168652</v>
-      </c>
-      <c r="AT3" s="7" t="n">
-        <v>377648</v>
-      </c>
-      <c r="AU3" s="7" t="n">
-        <v>566643</v>
-      </c>
-      <c r="AV3" s="7" t="n">
-        <v>367289</v>
-      </c>
-      <c r="AW3" s="7" t="n">
-        <v>194030</v>
-      </c>
-      <c r="AX3" s="7" t="n">
-        <v>137758</v>
-      </c>
-      <c r="AY3" s="7" t="n">
-        <v>170162</v>
-      </c>
-      <c r="AZ3" s="7" t="n">
-        <v>179120</v>
-      </c>
-      <c r="BA3" s="7" t="n">
-        <v>149735</v>
+        <v>262419</v>
+      </c>
+      <c r="AE2" s="6" t="n">
+        <v>381385</v>
+      </c>
+      <c r="AF2" s="6" t="n">
+        <v>376181</v>
+      </c>
+      <c r="AG2" s="6" t="n">
+        <v>601218</v>
+      </c>
+      <c r="AH2" s="6" t="n">
+        <v>1128573</v>
+      </c>
+      <c r="AI2" s="6" t="n">
+        <v>1523896</v>
+      </c>
+      <c r="AJ2" s="6" t="n">
+        <v>566908</v>
+      </c>
+      <c r="AK2" s="6" t="n">
+        <v>360790</v>
+      </c>
+      <c r="AL2" s="6" t="n">
+        <v>250367</v>
+      </c>
+      <c r="AM2" s="6" t="n">
+        <v>262426</v>
+      </c>
+      <c r="AN2" s="6" t="n">
+        <v>231434</v>
+      </c>
+      <c r="AO2" s="6" t="n">
+        <v>211006</v>
+      </c>
+      <c r="AP2" s="6" t="n">
+        <v>83473</v>
+      </c>
+      <c r="AQ2" s="6" t="n">
+        <v>3526</v>
+      </c>
+      <c r="AR2" s="6" t="n">
+        <v>4652</v>
+      </c>
+      <c r="AS2" s="6" t="n">
+        <v>164782</v>
+      </c>
+      <c r="AT2" s="6" t="n">
+        <v>368702</v>
+      </c>
+      <c r="AU2" s="6" t="n">
+        <v>557919</v>
+      </c>
+      <c r="AV2" s="6" t="n">
+        <v>358820</v>
+      </c>
+      <c r="AW2" s="6" t="n">
+        <v>185926</v>
+      </c>
+      <c r="AX2" s="6" t="n">
+        <v>133417</v>
+      </c>
+      <c r="AY2" s="6" t="n">
+        <v>155022</v>
+      </c>
+      <c r="AZ2" s="6" t="n">
+        <v>169147</v>
+      </c>
+      <c r="BA2" s="6" t="n">
+        <v>143618</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="6" t="n">
-        <v>196814</v>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>205166</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>161145</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>175257</v>
-      </c>
-      <c r="F4" s="7" t="n">
-        <v>227709</v>
-      </c>
-      <c r="G4" s="7" t="n">
-        <v>334164</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <v>337109</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <v>414529</v>
-      </c>
-      <c r="J4" s="7" t="n">
-        <v>825652</v>
-      </c>
-      <c r="K4" s="7" t="n">
-        <v>1116592</v>
-      </c>
-      <c r="L4" s="7" t="n">
-        <v>437185</v>
-      </c>
-      <c r="M4" s="7" t="n">
-        <v>363766</v>
-      </c>
-      <c r="N4" s="7" t="n">
-        <v>238743</v>
-      </c>
-      <c r="O4" s="7" t="n">
-        <v>233990</v>
-      </c>
-      <c r="P4" s="6" t="n">
-        <v>217593</v>
-      </c>
-      <c r="Q4" s="7" t="n">
-        <v>177028</v>
-      </c>
-      <c r="R4" s="7" t="n">
-        <v>235630</v>
-      </c>
-      <c r="S4" s="7" t="n">
-        <v>327508</v>
-      </c>
-      <c r="T4" s="7" t="n">
-        <v>368190</v>
-      </c>
-      <c r="U4" s="7" t="n">
-        <v>473472</v>
-      </c>
-      <c r="V4" s="7" t="n">
-        <v>985913</v>
-      </c>
-      <c r="W4" s="7" t="n">
-        <v>1417769</v>
-      </c>
-      <c r="X4" s="7" t="n">
-        <v>640568</v>
-      </c>
-      <c r="Y4" s="7" t="n">
-        <v>314489</v>
-      </c>
-      <c r="Z4" s="7" t="n">
-        <v>228357</v>
-      </c>
-      <c r="AA4" s="7" t="n">
-        <v>253301</v>
-      </c>
-      <c r="AB4" s="6" t="n">
-        <v>194863</v>
-      </c>
-      <c r="AC4" s="7" t="n">
-        <v>185863</v>
-      </c>
-      <c r="AD4" s="6" t="n">
-        <v>262419</v>
-      </c>
-      <c r="AE4" s="7" t="n">
-        <v>381385</v>
-      </c>
-      <c r="AF4" s="7" t="n">
-        <v>376181</v>
-      </c>
-      <c r="AG4" s="7" t="n">
-        <v>601218</v>
-      </c>
-      <c r="AH4" s="7" t="n">
-        <v>1128573</v>
-      </c>
-      <c r="AI4" s="7" t="n">
-        <v>1523896</v>
-      </c>
-      <c r="AJ4" s="7" t="n">
-        <v>566908</v>
-      </c>
-      <c r="AK4" s="7" t="n">
-        <v>360790</v>
-      </c>
-      <c r="AL4" s="7" t="n">
-        <v>250367</v>
-      </c>
-      <c r="AM4" s="7" t="n">
-        <v>262426</v>
-      </c>
-      <c r="AN4" s="7" t="n">
-        <v>231434</v>
-      </c>
-      <c r="AO4" s="7" t="n">
-        <v>211006</v>
-      </c>
-      <c r="AP4" s="7" t="n">
-        <v>83473</v>
-      </c>
-      <c r="AQ4" s="7" t="n">
-        <v>3526</v>
-      </c>
-      <c r="AR4" s="7" t="n">
-        <v>4652</v>
-      </c>
-      <c r="AS4" s="7" t="n">
-        <v>164782</v>
-      </c>
-      <c r="AT4" s="7" t="n">
-        <v>368702</v>
-      </c>
-      <c r="AU4" s="7" t="n">
-        <v>557919</v>
-      </c>
-      <c r="AV4" s="7" t="n">
-        <v>358820</v>
-      </c>
-      <c r="AW4" s="7" t="n">
-        <v>185926</v>
-      </c>
-      <c r="AX4" s="7" t="n">
-        <v>133417</v>
-      </c>
-      <c r="AY4" s="7" t="n">
-        <v>155022</v>
-      </c>
-      <c r="AZ4" s="7" t="n">
-        <v>169147</v>
-      </c>
-      <c r="BA4" s="7" t="n">
-        <v>143618</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10"/>
-      <c r="AZ6" s="10"/>
-      <c r="BA6" s="10"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AJ9" s="10"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="10"/>
-      <c r="AV9" s="10"/>
-      <c r="AW9" s="10"/>
-      <c r="AX9" s="10"/>
-      <c r="AY9" s="10"/>
-      <c r="AZ9" s="10"/>
-      <c r="BA9" s="10"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="AJ9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="AJ11" s="10"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BB13" s="10"/>
-      <c r="BC13" s="10"/>
-      <c r="BD13" s="10"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-    </row>
+      <c r="BB11" s="7"/>
+      <c r="BC11" s="7"/>
+      <c r="BD11" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
